--- a/Models/Fed Models/One Model/Similar Words/Similar Words Export.xlsx
+++ b/Models/Fed Models/One Model/Similar Words/Similar Words Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylenabors/Documents/GitHub/MS-Thesis/Models/Fed Models/One Model/Similar Words/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3ACAC7-3DE6-C246-B190-85F76DC3B609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6703F912-705B-6946-ABE2-BD8F59C62E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="60160" windowHeight="33340" activeTab="1" xr2:uid="{42D787EC-48FE-DE4F-92DF-AA6077772165}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" activeTab="1" xr2:uid="{42D787EC-48FE-DE4F-92DF-AA6077772165}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="20" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
   <si>
     <t>Keyword</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Sum of Similarity</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>employment</t>
   </si>
   <si>
@@ -231,15 +228,6 @@
     <t>investment</t>
   </si>
   <si>
-    <t>laborsave</t>
-  </si>
-  <si>
-    <t>upgrade</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
     <t>uncertain</t>
   </si>
   <si>
@@ -252,45 +240,6 @@
     <t>optimistic</t>
   </si>
   <si>
-    <t>elevated</t>
-  </si>
-  <si>
-    <t>compensation</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>heavily</t>
-  </si>
-  <si>
-    <t>brickand</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>seemingly</t>
-  </si>
-  <si>
-    <t>audio</t>
-  </si>
-  <si>
-    <t>transportation</t>
-  </si>
-  <si>
-    <t>policy</t>
-  </si>
-  <si>
-    <t>finance</t>
-  </si>
-  <si>
-    <t>driver</t>
-  </si>
-  <si>
     <t>regard</t>
   </si>
   <si>
@@ -300,7 +249,76 @@
     <t>whether</t>
   </si>
   <si>
-    <t>future</t>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>although</t>
+  </si>
+  <si>
+    <t>despite</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>upward</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>expenditure</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>comply</t>
+  </si>
+  <si>
+    <t>respirator</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>programmer</t>
+  </si>
+  <si>
+    <t>hourly</t>
+  </si>
+  <si>
+    <t>tradespeople</t>
+  </si>
+  <si>
+    <t>assistant</t>
+  </si>
+  <si>
+    <t>weak</t>
   </si>
 </sst>
 </file>
@@ -346,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -369,11 +387,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,13 +462,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -793,7 +881,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1ACC4303-584B-764B-A592-31018C6447E1}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1ACC4303-584B-764B-A592-31018C6447E1}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -2073,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07B49F6-C57C-ED4B-8A08-CFC29EE49452}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="286" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="303" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2108,21 +2196,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.63885372877120972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.76695728302001953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.60001897811889648</v>
+        <v>0.70979863405227661</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -2130,75 +2218,75 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>0.56359183788299561</v>
-      </c>
-      <c r="F4" s="5" t="str">
+        <v>0.68220138549804688</v>
+      </c>
+      <c r="F4" s="7" t="str">
         <f>A2</f>
         <v>interest</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5" t="str">
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="str">
         <f>A12</f>
         <v>inflation</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="5" t="str">
+      <c r="I4" s="8"/>
+      <c r="J4" s="7" t="str">
         <f>A22</f>
         <v>invest</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="5" t="str">
+      <c r="K4" s="8"/>
+      <c r="L4" s="7" t="str">
         <f>A32</f>
         <v>trade</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5" t="str">
+      <c r="M4" s="8"/>
+      <c r="N4" s="7" t="str">
         <f>A42</f>
         <v>uncertain</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0.55156606435775757</v>
-      </c>
-      <c r="F5" s="6" t="s">
+        <v>0.67368733882904053</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2207,50 +2295,50 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0.5282779335975647</v>
-      </c>
-      <c r="F6" t="str">
+        <v>0.67315489053726196</v>
+      </c>
+      <c r="F6" s="6" t="str">
         <f>B2</f>
-        <v>rate</v>
-      </c>
-      <c r="G6" s="4">
+        <v>rise</v>
+      </c>
+      <c r="G6" s="10">
         <f>C2</f>
-        <v>0.63885372877120972</v>
-      </c>
-      <c r="H6" s="5" t="str">
+        <v>0.76695728302001953</v>
+      </c>
+      <c r="H6" s="6" t="str">
         <f>B12</f>
-        <v>pressure</v>
-      </c>
-      <c r="I6" s="4">
+        <v>employment</v>
+      </c>
+      <c r="I6" s="10">
         <f>C12</f>
-        <v>0.52797269821166992</v>
-      </c>
-      <c r="J6" s="7" t="str">
+        <v>0.59112226963043213</v>
+      </c>
+      <c r="J6" s="9" t="str">
         <f>B22</f>
-        <v>video</v>
-      </c>
-      <c r="K6" s="8">
+        <v>investment</v>
+      </c>
+      <c r="K6" s="10">
         <f>C22</f>
-        <v>0.40472188591957092</v>
-      </c>
-      <c r="L6" s="5" t="str">
+        <v>0.57671272754669189</v>
+      </c>
+      <c r="L6" s="9" t="str">
         <f>B33</f>
-        <v>skilled</v>
-      </c>
-      <c r="M6" s="4">
+        <v>occupation</v>
+      </c>
+      <c r="M6" s="10">
         <f>C33</f>
-        <v>0.52858495712280273</v>
-      </c>
-      <c r="N6" s="7" t="str">
+        <v>0.59668302536010742</v>
+      </c>
+      <c r="N6" s="9" t="str">
         <f>B42</f>
-        <v>pessimistic</v>
-      </c>
-      <c r="O6" s="8">
+        <v>cautious</v>
+      </c>
+      <c r="O6" s="10">
         <f>C42</f>
-        <v>0.44419804215431208</v>
+        <v>0.63352763652801514</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -2258,50 +2346,50 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C7">
-        <v>0.52254647016525269</v>
-      </c>
-      <c r="F7" t="str">
+        <v>0.65906739234924316</v>
+      </c>
+      <c r="F7" s="9" t="str">
         <f t="shared" ref="F7:G15" si="0">B3</f>
-        <v>mortgage</v>
-      </c>
-      <c r="G7" s="4">
+        <v>demand</v>
+      </c>
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>0.60001897811889648</v>
-      </c>
-      <c r="H7" s="5" t="str">
+        <v>0.70979863405227661</v>
+      </c>
+      <c r="H7" s="6" t="str">
         <f t="shared" ref="H7:I15" si="1">B13</f>
-        <v>labor</v>
-      </c>
-      <c r="I7" s="4">
+        <v>pressure</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="1"/>
-        <v>0.51230317354202271</v>
-      </c>
-      <c r="J7" s="7" t="str">
+        <v>0.58609753847122192</v>
+      </c>
+      <c r="J7" s="9" t="str">
         <f t="shared" ref="J7:K15" si="2">B23</f>
-        <v>laborsave</v>
-      </c>
-      <c r="K7" s="8">
+        <v>capital</v>
+      </c>
+      <c r="K7" s="10">
         <f t="shared" si="2"/>
-        <v>0.40253797173500061</v>
-      </c>
-      <c r="L7" t="str">
+        <v>0.53413563966751099</v>
+      </c>
+      <c r="L7" s="9" t="str">
         <f t="shared" ref="L7:M15" si="3">B34</f>
-        <v>hightech</v>
-      </c>
-      <c r="M7" s="4">
+        <v>worker</v>
+      </c>
+      <c r="M7" s="10">
         <f t="shared" si="3"/>
-        <v>0.47858721017837519</v>
-      </c>
-      <c r="N7" s="7" t="str">
+        <v>0.56989938020706177</v>
+      </c>
+      <c r="N7" s="9" t="str">
         <f t="shared" ref="N7:O15" si="4">B43</f>
-        <v>regard</v>
-      </c>
-      <c r="O7" s="8">
+        <v>negative</v>
+      </c>
+      <c r="O7" s="10">
         <f t="shared" si="4"/>
-        <v>0.44110694527626038</v>
+        <v>0.61593180894851685</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -2309,50 +2397,50 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>0.50330883264541626</v>
-      </c>
-      <c r="F8" s="5" t="str">
+        <v>0.65697270631790161</v>
+      </c>
+      <c r="F8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>high</v>
-      </c>
-      <c r="G8" s="4">
+        <v>concern</v>
+      </c>
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
-        <v>0.56359183788299561</v>
-      </c>
-      <c r="H8" s="5" t="str">
+        <v>0.68220138549804688</v>
+      </c>
+      <c r="H8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>wage</v>
-      </c>
-      <c r="I8" s="4">
+        <v>upward</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="1"/>
-        <v>0.49962145090103149</v>
-      </c>
-      <c r="J8" s="7" t="str">
+        <v>0.57555621862411499</v>
+      </c>
+      <c r="J8" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>investment</v>
-      </c>
-      <c r="K8" s="8">
+        <v>automation</v>
+      </c>
+      <c r="K8" s="10">
         <f t="shared" si="2"/>
-        <v>0.37861853837966919</v>
-      </c>
-      <c r="L8" s="5" t="str">
+        <v>0.51939970254898071</v>
+      </c>
+      <c r="L8" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>hospitality</v>
-      </c>
-      <c r="M8" s="4">
+        <v>position</v>
+      </c>
+      <c r="M8" s="10">
         <f t="shared" si="3"/>
-        <v>0.46107703447341919</v>
-      </c>
-      <c r="N8" s="7" t="str">
+        <v>0.53901433944702148</v>
+      </c>
+      <c r="N8" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>uncertainty</v>
-      </c>
-      <c r="O8" s="8">
+        <v>pessimistic</v>
+      </c>
+      <c r="O8" s="10">
         <f t="shared" si="4"/>
-        <v>0.43744388222694391</v>
+        <v>0.59819638729095459</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2360,50 +2448,50 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>0.49721378087997431</v>
-      </c>
-      <c r="F9" s="5" t="str">
+        <v>0.65669453144073486</v>
+      </c>
+      <c r="F9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>rise</v>
-      </c>
-      <c r="G9" s="4">
+        <v>mortgage</v>
+      </c>
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
-        <v>0.55156606435775757</v>
-      </c>
-      <c r="H9" t="str">
+        <v>0.67368733882904053</v>
+      </c>
+      <c r="H9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>price</v>
-      </c>
-      <c r="I9" s="4">
+        <v>growth</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="1"/>
-        <v>0.47849774360656738</v>
-      </c>
-      <c r="J9" s="5" t="str">
+        <v>0.5642092227935791</v>
+      </c>
+      <c r="J9" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>automation</v>
-      </c>
-      <c r="K9" s="8">
+        <v>technology</v>
+      </c>
+      <c r="K9" s="10">
         <f t="shared" si="2"/>
-        <v>0.3778020441532135</v>
-      </c>
-      <c r="L9" s="5" t="str">
+        <v>0.51837223768234253</v>
+      </c>
+      <c r="L9" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>transportation</v>
-      </c>
-      <c r="M9" s="4">
+        <v>skill</v>
+      </c>
+      <c r="M9" s="10">
         <f t="shared" si="3"/>
-        <v>0.45050352811813349</v>
-      </c>
-      <c r="N9" s="7" t="str">
+        <v>0.53544151782989502</v>
+      </c>
+      <c r="N9" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>cautious</v>
-      </c>
-      <c r="O9" s="8">
+        <v>optimistic</v>
+      </c>
+      <c r="O9" s="10">
         <f t="shared" si="4"/>
-        <v>0.42765301465988159</v>
+        <v>0.58455824851989746</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2411,50 +2499,50 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10">
-        <v>0.4962993860244751</v>
-      </c>
-      <c r="F10" t="str">
+        <v>0.6519894003868103</v>
+      </c>
+      <c r="F10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>cost</v>
-      </c>
-      <c r="G10" s="4">
+        <v>high</v>
+      </c>
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
-        <v>0.5282779335975647</v>
-      </c>
-      <c r="H10" s="5" t="str">
+        <v>0.67315489053726196</v>
+      </c>
+      <c r="H10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>compensation</v>
-      </c>
-      <c r="I10" s="4">
+        <v>however</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="1"/>
-        <v>0.45503419637680048</v>
-      </c>
-      <c r="J10" s="5" t="str">
+        <v>0.56394404172897339</v>
+      </c>
+      <c r="J10" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>heavily</v>
-      </c>
-      <c r="K10" s="8">
+        <v>expenditure</v>
+      </c>
+      <c r="K10" s="10">
         <f t="shared" si="2"/>
-        <v>0.37316992878913879</v>
-      </c>
-      <c r="L10" t="str">
+        <v>0.51485580205917358</v>
+      </c>
+      <c r="L10" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>professional</v>
-      </c>
-      <c r="M10" s="4">
+        <v>engineer</v>
+      </c>
+      <c r="M10" s="10">
         <f t="shared" si="3"/>
-        <v>0.42745396494865417</v>
-      </c>
-      <c r="N10" s="7" t="str">
+        <v>0.53071337938308716</v>
+      </c>
+      <c r="N10" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>outlook</v>
-      </c>
-      <c r="O10" s="8">
+        <v>regard</v>
+      </c>
+      <c r="O10" s="10">
         <f t="shared" si="4"/>
-        <v>0.42251947522163391</v>
+        <v>0.56089657545089722</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2462,50 +2550,50 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C11">
-        <v>0.48977994918823242</v>
-      </c>
-      <c r="F11" t="str">
+        <v>0.65131038427352905</v>
+      </c>
+      <c r="F11" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>demand</v>
-      </c>
-      <c r="G11" s="4">
+        <v>potential</v>
+      </c>
+      <c r="G11" s="10">
         <f t="shared" si="0"/>
-        <v>0.52254647016525269</v>
-      </c>
-      <c r="H11" t="str">
+        <v>0.65906739234924316</v>
+      </c>
+      <c r="H11" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>input</v>
-      </c>
-      <c r="I11" s="4">
+        <v>contact</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="1"/>
-        <v>0.44881698489189148</v>
-      </c>
-      <c r="J11" s="7" t="str">
+        <v>0.5597914457321167</v>
+      </c>
+      <c r="J11" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>brickand</v>
-      </c>
-      <c r="K11" s="8">
+        <v>plan</v>
+      </c>
+      <c r="K11" s="10">
         <f t="shared" si="2"/>
-        <v>0.36240300536155701</v>
-      </c>
-      <c r="L11" s="5" t="str">
+        <v>0.49556776881217951</v>
+      </c>
+      <c r="L11" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>service</v>
-      </c>
-      <c r="M11" s="4">
+        <v>programmer</v>
+      </c>
+      <c r="M11" s="10">
         <f t="shared" si="3"/>
-        <v>0.41694375872612</v>
-      </c>
-      <c r="N11" s="7" t="str">
+        <v>0.52720248699188232</v>
+      </c>
+      <c r="N11" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>concern</v>
-      </c>
-      <c r="O11" s="8">
+        <v>uncertainty</v>
+      </c>
+      <c r="O11" s="10">
         <f t="shared" si="4"/>
-        <v>0.42181473970413208</v>
+        <v>0.55103999376296997</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -2513,50 +2601,50 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C12">
-        <v>0.52797269821166992</v>
-      </c>
-      <c r="F12" t="str">
+        <v>0.59112226963043213</v>
+      </c>
+      <c r="F12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>deposit</v>
-      </c>
-      <c r="G12" s="4">
+        <v>inventory</v>
+      </c>
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>0.50330883264541626</v>
-      </c>
-      <c r="H12" s="5" t="str">
+        <v>0.65697270631790161</v>
+      </c>
+      <c r="H12" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>employment</v>
-      </c>
-      <c r="I12" s="4">
+        <v>increase</v>
+      </c>
+      <c r="I12" s="10">
         <f t="shared" si="1"/>
-        <v>0.4482483565807342</v>
-      </c>
-      <c r="J12" s="7" t="str">
+        <v>0.54713165760040283</v>
+      </c>
+      <c r="J12" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>want</v>
-      </c>
-      <c r="K12" s="8">
+        <v>develop</v>
+      </c>
+      <c r="K12" s="10">
         <f t="shared" si="2"/>
-        <v>0.36130329966545099</v>
-      </c>
-      <c r="L12" s="5" t="str">
+        <v>0.49135589599609369</v>
+      </c>
+      <c r="L12" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>policy</v>
-      </c>
-      <c r="M12" s="4">
+        <v>hourly</v>
+      </c>
+      <c r="M12" s="10">
         <f t="shared" si="3"/>
-        <v>0.4142926037311554</v>
-      </c>
-      <c r="N12" s="7" t="str">
+        <v>0.5150139331817627</v>
+      </c>
+      <c r="N12" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>optimistic</v>
-      </c>
-      <c r="O12" s="8">
+        <v>outlook</v>
+      </c>
+      <c r="O12" s="10">
         <f t="shared" si="4"/>
-        <v>0.40115147829055781</v>
+        <v>0.55054271221160889</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2564,50 +2652,50 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>0.51230317354202271</v>
-      </c>
-      <c r="F13" s="5" t="str">
+        <v>0.58609753847122192</v>
+      </c>
+      <c r="F13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>uncertainty</v>
-      </c>
-      <c r="G13" s="4">
+        <v>although</v>
+      </c>
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>0.49721378087997431</v>
-      </c>
-      <c r="H13" t="str">
+        <v>0.65669453144073486</v>
+      </c>
+      <c r="H13" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>cost</v>
-      </c>
-      <c r="I13" s="4">
+        <v>overall</v>
+      </c>
+      <c r="I13" s="10">
         <f t="shared" si="1"/>
-        <v>0.42870903015136719</v>
-      </c>
-      <c r="J13" s="7" t="str">
+        <v>0.54033553600311279</v>
+      </c>
+      <c r="J13" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>seemingly</v>
-      </c>
-      <c r="K13" s="8">
+        <v>development</v>
+      </c>
+      <c r="K13" s="10">
         <f t="shared" si="2"/>
-        <v>0.3599373996257782</v>
-      </c>
-      <c r="L13" s="7" t="str">
+        <v>0.48282110691070551</v>
+      </c>
+      <c r="L13" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>finance</v>
-      </c>
-      <c r="M13" s="4">
+        <v>tradespeople</v>
+      </c>
+      <c r="M13" s="10">
         <f t="shared" si="3"/>
-        <v>0.39679163694381708</v>
-      </c>
-      <c r="N13" s="7" t="str">
+        <v>0.51163864135742188</v>
+      </c>
+      <c r="N13" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>positive</v>
-      </c>
-      <c r="O13" s="8">
+        <v>weak</v>
+      </c>
+      <c r="O13" s="10">
         <f t="shared" si="4"/>
-        <v>0.39796140789985651</v>
+        <v>0.5421721339225769</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -2615,50 +2703,50 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C14">
-        <v>0.49962145090103149</v>
-      </c>
-      <c r="F14" s="5" t="str">
+        <v>0.57555621862411499</v>
+      </c>
+      <c r="F14" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>elevated</v>
-      </c>
-      <c r="G14" s="4">
+        <v>despite</v>
+      </c>
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
-        <v>0.4962993860244751</v>
-      </c>
-      <c r="H14" s="5" t="str">
+        <v>0.6519894003868103</v>
+      </c>
+      <c r="H14" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>continue</v>
-      </c>
-      <c r="I14" s="4">
+        <v>balance</v>
+      </c>
+      <c r="I14" s="10">
         <f t="shared" si="1"/>
-        <v>0.4249042272567749</v>
-      </c>
-      <c r="J14" s="7" t="str">
+        <v>0.53328198194503784</v>
+      </c>
+      <c r="J14" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>audio</v>
-      </c>
-      <c r="K14" s="8">
+        <v>comply</v>
+      </c>
+      <c r="K14" s="10">
         <f t="shared" si="2"/>
-        <v>0.3587031364440918</v>
-      </c>
-      <c r="L14" t="str">
+        <v>0.47195383906364441</v>
+      </c>
+      <c r="L14" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>driver</v>
-      </c>
-      <c r="M14" s="4">
+        <v>assistant</v>
+      </c>
+      <c r="M14" s="10">
         <f t="shared" si="3"/>
-        <v>0.39549833536148071</v>
-      </c>
-      <c r="N14" s="7" t="str">
+        <v>0.5057680606842041</v>
+      </c>
+      <c r="N14" s="9" t="str">
         <f t="shared" si="4"/>
         <v>whether</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="10">
         <f t="shared" si="4"/>
-        <v>0.39323309063911438</v>
+        <v>0.54019254446029663</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2666,50 +2754,50 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>0.47849774360656738</v>
-      </c>
-      <c r="F15" t="str">
+        <v>0.5642092227935791</v>
+      </c>
+      <c r="F15" s="11" t="str">
         <f t="shared" si="0"/>
+        <v>because</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="0"/>
+        <v>0.65131038427352905</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>continue</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.48977994918823242</v>
-      </c>
-      <c r="H15" s="5" t="str">
+      <c r="I15" s="12">
         <f t="shared" si="1"/>
-        <v>growth</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="1"/>
-        <v>0.422148197889328</v>
-      </c>
-      <c r="J15" s="7" t="str">
+        <v>0.5286637544631958</v>
+      </c>
+      <c r="J15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>upgrade</v>
-      </c>
-      <c r="K15" s="8">
+        <v>respirator</v>
+      </c>
+      <c r="K15" s="12">
         <f t="shared" si="2"/>
-        <v>0.3515061736106872</v>
-      </c>
-      <c r="L15" s="5" t="str">
+        <v>0.46823140978813171</v>
+      </c>
+      <c r="L15" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>pessimistic</v>
-      </c>
-      <c r="M15" s="4">
+        <v>cautious</v>
+      </c>
+      <c r="M15" s="12">
         <f t="shared" si="3"/>
-        <v>0.44419804215431208</v>
-      </c>
-      <c r="N15" s="7" t="str">
+        <v>0.63352763652801514</v>
+      </c>
+      <c r="N15" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>future</v>
-      </c>
-      <c r="O15" s="8">
+        <v>express</v>
+      </c>
+      <c r="O15" s="12">
         <f t="shared" si="4"/>
-        <v>0.38726934790611262</v>
+        <v>0.51813817024230957</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2717,10 +2805,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C16">
-        <v>0.45503419637680048</v>
+        <v>0.56394404172897339</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2728,10 +2816,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>0.44881698489189148</v>
+        <v>0.5597914457321167</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2739,10 +2827,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>0.4482483565807342</v>
+        <v>0.54713165760040283</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2750,10 +2838,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>0.42870903015136719</v>
+        <v>0.54033553600311279</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2761,10 +2849,10 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C20">
-        <v>0.4249042272567749</v>
+        <v>0.53328198194503784</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2772,120 +2860,120 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>0.422148197889328</v>
+        <v>0.5286637544631958</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C22">
-        <v>0.40472188591957092</v>
+        <v>0.57671272754669189</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C23">
-        <v>0.40253797173500061</v>
+        <v>0.53413563966751099</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
       <c r="C24">
-        <v>0.37861853837966919</v>
+        <v>0.51939970254898071</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C25">
-        <v>0.3778020441532135</v>
+        <v>0.51837223768234253</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C26">
-        <v>0.37316992878913879</v>
+        <v>0.51485580205917358</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C27">
-        <v>0.36240300536155701</v>
+        <v>0.49556776881217951</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C28">
-        <v>0.36130329966545099</v>
+        <v>0.49135589599609369</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C29">
-        <v>0.3599373996257782</v>
+        <v>0.48282110691070551</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C30">
-        <v>0.3587031364440918</v>
+        <v>0.47195383906364441</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C31">
-        <v>0.3515061736106872</v>
+        <v>0.46823140978813171</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2893,10 +2981,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>0.6620977520942688</v>
+        <v>0.6720280647277832</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2904,10 +2992,10 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C33">
-        <v>0.52858495712280273</v>
+        <v>0.59668302536010742</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2915,10 +3003,10 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C34">
-        <v>0.47858721017837519</v>
+        <v>0.56989938020706177</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2926,10 +3014,10 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C35">
-        <v>0.46107703447341919</v>
+        <v>0.53901433944702148</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2937,10 +3025,10 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C36">
-        <v>0.45050352811813349</v>
+        <v>0.53544151782989502</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2948,10 +3036,10 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C37">
-        <v>0.42745396494865417</v>
+        <v>0.53071337938308716</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2959,10 +3047,10 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C38">
-        <v>0.41694375872612</v>
+        <v>0.52720248699188232</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2970,10 +3058,10 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C39">
-        <v>0.4142926037311554</v>
+        <v>0.5150139331817627</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2981,10 +3069,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C40">
-        <v>0.39679163694381708</v>
+        <v>0.51163864135742188</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2992,123 +3080,131 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C41">
-        <v>0.39549833536148071</v>
+        <v>0.5057680606842041</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
-        <v>0.44419804215431208</v>
+        <v>0.63352763652801514</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>0.44110694527626038</v>
+        <v>0.61593180894851685</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C44">
-        <v>0.43744388222694391</v>
+        <v>0.59819638729095459</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C45">
-        <v>0.42765301465988159</v>
+        <v>0.58455824851989746</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
         <v>66</v>
       </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
       <c r="C46">
-        <v>0.42251947522163391</v>
+        <v>0.56089657545089722</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>0.42181473970413208</v>
+        <v>0.55103999376296997</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C48">
-        <v>0.40115147829055781</v>
+        <v>0.55054271221160889</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C49">
-        <v>0.39796140789985651</v>
+        <v>0.5421721339225769</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C50">
-        <v>0.39323309063911438</v>
+        <v>0.54019254446029663</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="C51">
-        <v>0.38726934790611262</v>
+        <v>0.51813817024230957</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Models/Fed Models/One Model/Similar Words/Similar Words Export.xlsx
+++ b/Models/Fed Models/One Model/Similar Words/Similar Words Export.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylenabors/Documents/GitHub/MS-Thesis/Models/Fed Models/One Model/Similar Words/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6703F912-705B-6946-ABE2-BD8F59C62E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD043D3-23BA-874B-BB36-EF981CBAAD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" activeTab="1" xr2:uid="{42D787EC-48FE-DE4F-92DF-AA6077772165}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="100">
   <si>
     <t>Keyword</t>
   </si>
@@ -228,48 +228,15 @@
     <t>investment</t>
   </si>
   <si>
-    <t>uncertain</t>
-  </si>
-  <si>
-    <t>pessimistic</t>
-  </si>
-  <si>
-    <t>outlook</t>
-  </si>
-  <si>
-    <t>optimistic</t>
-  </si>
-  <si>
-    <t>regard</t>
-  </si>
-  <si>
-    <t>cautious</t>
-  </si>
-  <si>
-    <t>whether</t>
-  </si>
-  <si>
-    <t>inventory</t>
-  </si>
-  <si>
     <t>although</t>
   </si>
   <si>
-    <t>despite</t>
-  </si>
-  <si>
     <t>because</t>
   </si>
   <si>
-    <t>upward</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>balance</t>
-  </si>
-  <si>
     <t>capital</t>
   </si>
   <si>
@@ -282,43 +249,97 @@
     <t>plan</t>
   </si>
   <si>
-    <t>develop</t>
-  </si>
-  <si>
-    <t>development</t>
-  </si>
-  <si>
-    <t>comply</t>
-  </si>
-  <si>
-    <t>respirator</t>
-  </si>
-  <si>
     <t>occupation</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
     <t>engineer</t>
   </si>
   <si>
-    <t>programmer</t>
-  </si>
-  <si>
     <t>hourly</t>
   </si>
   <si>
-    <t>tradespeople</t>
-  </si>
-  <si>
-    <t>assistant</t>
-  </si>
-  <si>
-    <t>weak</t>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>laborsave</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>analytic</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>delinquency</t>
+  </si>
+  <si>
+    <t>lender</t>
+  </si>
+  <si>
+    <t>banking</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>estate</t>
+  </si>
+  <si>
+    <t>remain</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>slightly</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>fiscal</t>
+  </si>
+  <si>
+    <t>additional</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>laborer</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>technician</t>
+  </si>
+  <si>
+    <t>certain</t>
   </si>
 </sst>
 </file>
@@ -364,7 +385,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -449,11 +470,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -464,7 +507,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,6 +521,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,7 +928,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1ACC4303-584B-764B-A592-31018C6447E1}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1ACC4303-584B-764B-A592-31018C6447E1}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -2159,28 +2206,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07B49F6-C57C-ED4B-8A08-CFC29EE49452}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="303" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="289" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2191,7 +2231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2199,57 +2239,67 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.76695728302001953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.76771456003189087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.70979863405227661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.70744043588638306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0.68220138549804688</v>
-      </c>
-      <c r="F4" s="7" t="str">
+        <v>0.67463576793670654</v>
+      </c>
+      <c r="F4" s="6" t="str">
         <f>A2</f>
         <v>interest</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="str">
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="str">
         <f>A12</f>
         <v>inflation</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7" t="str">
+      <c r="I4" s="7"/>
+      <c r="J4" s="6" t="str">
         <f>A22</f>
         <v>invest</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7" t="str">
+      <c r="K4" s="7"/>
+      <c r="L4" s="6" t="str">
         <f>A32</f>
+        <v>credit</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6" t="str">
+        <f>A42</f>
+        <v>market</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="6" t="str">
+        <f>A52</f>
+        <v>capital</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="6" t="str">
+        <f>A62</f>
         <v>trade</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="7" t="str">
-        <f>A42</f>
-        <v>uncertain</v>
-      </c>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2257,7 +2307,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.67368733882904053</v>
+        <v>0.66328400373458862</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>1</v>
@@ -2289,529 +2339,701 @@
       <c r="O5" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C6">
-        <v>0.67315489053726196</v>
-      </c>
-      <c r="F6" s="6" t="str">
+        <v>0.63748800754547119</v>
+      </c>
+      <c r="F6" s="8" t="str">
         <f>B2</f>
         <v>rise</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f>C2</f>
-        <v>0.76695728302001953</v>
-      </c>
-      <c r="H6" s="6" t="str">
+        <v>0.76771456003189087</v>
+      </c>
+      <c r="H6" s="8" t="str">
         <f>B12</f>
-        <v>employment</v>
-      </c>
-      <c r="I6" s="10">
+        <v>pressure</v>
+      </c>
+      <c r="I6" s="9">
         <f>C12</f>
-        <v>0.59112226963043213</v>
-      </c>
-      <c r="J6" s="9" t="str">
+        <v>0.63967114686965942</v>
+      </c>
+      <c r="J6" s="8" t="str">
         <f>B22</f>
-        <v>investment</v>
-      </c>
-      <c r="K6" s="10">
+        <v>automation</v>
+      </c>
+      <c r="K6" s="9">
         <f>C22</f>
-        <v>0.57671272754669189</v>
-      </c>
-      <c r="L6" s="9" t="str">
+        <v>0.55927193164825439</v>
+      </c>
+      <c r="L6" s="8" t="str">
         <f>B33</f>
-        <v>occupation</v>
-      </c>
-      <c r="M6" s="10">
+        <v>lending</v>
+      </c>
+      <c r="M6" s="9">
         <f>C33</f>
-        <v>0.59668302536010742</v>
-      </c>
-      <c r="N6" s="9" t="str">
+        <v>0.72929030656814575</v>
+      </c>
+      <c r="N6" s="8" t="str">
         <f>B42</f>
-        <v>cautious</v>
-      </c>
-      <c r="O6" s="10">
+        <v>continue</v>
+      </c>
+      <c r="O6" s="9">
         <f>C42</f>
-        <v>0.63352763652801514</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.7384638786315918</v>
+      </c>
+      <c r="P6" s="8" t="str">
+        <f>B52</f>
+        <v>expenditure</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>C52</f>
+        <v>0.86445367336273193</v>
+      </c>
+      <c r="R6" s="8" t="str">
+        <f>B62</f>
+        <v>skilled</v>
+      </c>
+      <c r="S6" s="9">
+        <f>C62</f>
+        <v>0.71774619817733765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C7">
-        <v>0.65906739234924316</v>
-      </c>
-      <c r="F7" s="9" t="str">
+        <v>0.6267930269241333</v>
+      </c>
+      <c r="F7" s="8" t="str">
         <f t="shared" ref="F7:G15" si="0">B3</f>
-        <v>demand</v>
-      </c>
-      <c r="G7" s="10">
+        <v>high</v>
+      </c>
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>0.70979863405227661</v>
-      </c>
-      <c r="H7" s="6" t="str">
+        <v>0.70744043588638306</v>
+      </c>
+      <c r="H7" s="8" t="str">
         <f t="shared" ref="H7:I15" si="1">B13</f>
-        <v>pressure</v>
-      </c>
-      <c r="I7" s="10">
+        <v>overall</v>
+      </c>
+      <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>0.58609753847122192</v>
-      </c>
-      <c r="J7" s="9" t="str">
+        <v>0.61931180953979492</v>
+      </c>
+      <c r="J7" s="8" t="str">
         <f t="shared" ref="J7:K15" si="2">B23</f>
-        <v>capital</v>
-      </c>
-      <c r="K7" s="10">
+        <v>investment</v>
+      </c>
+      <c r="K7" s="9">
         <f t="shared" si="2"/>
-        <v>0.53413563966751099</v>
-      </c>
-      <c r="L7" s="9" t="str">
+        <v>0.53213512897491455</v>
+      </c>
+      <c r="L7" s="8" t="str">
         <f t="shared" ref="L7:M15" si="3">B34</f>
+        <v>quality</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="3"/>
+        <v>0.69619220495223999</v>
+      </c>
+      <c r="N7" s="8" t="str">
+        <f t="shared" ref="N7:O15" si="4">B43</f>
+        <v>estate</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="4"/>
+        <v>0.73365318775177002</v>
+      </c>
+      <c r="P7" s="8" t="str">
+        <f t="shared" ref="P7:Q15" si="5">B53</f>
+        <v>investment</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="5"/>
+        <v>0.71557211875915527</v>
+      </c>
+      <c r="R7" s="8" t="str">
+        <f t="shared" ref="R7:S15" si="6">B63</f>
         <v>worker</v>
       </c>
-      <c r="M7" s="10">
-        <f t="shared" si="3"/>
-        <v>0.56989938020706177</v>
-      </c>
-      <c r="N7" s="9" t="str">
-        <f t="shared" ref="N7:O15" si="4">B43</f>
-        <v>negative</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="4"/>
-        <v>0.61593180894851685</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="S7" s="9">
+        <f t="shared" si="6"/>
+        <v>0.51704710721969604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>0.65697270631790161</v>
-      </c>
-      <c r="F8" s="6" t="str">
+        <v>0.61856865882873535</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>demand</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.67463576793670654</v>
+      </c>
+      <c r="H8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>employment</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.61720865964889526</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>technology</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="2"/>
+        <v>0.52293270826339722</v>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>banker</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="3"/>
+        <v>0.64838302135467529</v>
+      </c>
+      <c r="N8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>remain</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="4"/>
+        <v>0.72977757453918457</v>
+      </c>
+      <c r="P8" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>plan</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="5"/>
+        <v>0.56865209341049194</v>
+      </c>
+      <c r="R8" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>laborer</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="6"/>
+        <v>0.4950586855411529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>0.60866761207580566</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>mortgage</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.66328400373458862</v>
+      </c>
+      <c r="H9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>rise</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.61008208990097046</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>laborsave</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="2"/>
+        <v>0.49021759629249573</v>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>mortgage</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="3"/>
+        <v>0.59765589237213135</v>
+      </c>
+      <c r="N9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>demand</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="4"/>
+        <v>0.69808012247085571</v>
+      </c>
+      <c r="P9" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>equipment</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="5"/>
+        <v>0.54048019647598267</v>
+      </c>
+      <c r="R9" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>nurse</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="6"/>
+        <v>0.4842529296875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>0.59564173221588135</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>customer</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.63748800754547119</v>
+      </c>
+      <c r="H10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>growth</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.57572436332702637</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>upgrade</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.48699721693992609</v>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>delinquency</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="3"/>
+        <v>0.59593015909194946</v>
+      </c>
+      <c r="N10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>activity</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="4"/>
+        <v>0.6937795877456665</v>
+      </c>
+      <c r="P10" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>production</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="5"/>
+        <v>0.52263456583023071</v>
+      </c>
+      <c r="R10" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>carpenter</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="6"/>
+        <v>0.4800864160060882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>0.59479266405105591</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>although</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.6267930269241333</v>
+      </c>
+      <c r="H11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>contact</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.56607425212860107</v>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>capital</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="2"/>
+        <v>0.46175405383110041</v>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>lender</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="3"/>
+        <v>0.58252352476119995</v>
+      </c>
+      <c r="N11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>contact</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="4"/>
+        <v>0.69197303056716919</v>
+      </c>
+      <c r="P11" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>energy</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="5"/>
+        <v>0.51391822099685669</v>
+      </c>
+      <c r="R11" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>technician</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="6"/>
+        <v>0.47624963521957397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0.63967114686965942</v>
+      </c>
+      <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>concern</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v>0.68220138549804688</v>
-      </c>
-      <c r="H8" s="9" t="str">
+        <v>0.61856865882873535</v>
+      </c>
+      <c r="H12" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>upward</v>
-      </c>
-      <c r="I8" s="10">
+        <v>high</v>
+      </c>
+      <c r="I12" s="9">
         <f t="shared" si="1"/>
-        <v>0.57555621862411499</v>
-      </c>
-      <c r="J8" s="9" t="str">
+        <v>0.56099134683609009</v>
+      </c>
+      <c r="J12" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>automation</v>
-      </c>
-      <c r="K8" s="10">
+        <v>expansion</v>
+      </c>
+      <c r="K12" s="9">
         <f t="shared" si="2"/>
-        <v>0.51939970254898071</v>
-      </c>
-      <c r="L8" s="9" t="str">
+        <v>0.45291745662689209</v>
+      </c>
+      <c r="L12" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>position</v>
-      </c>
-      <c r="M8" s="10">
+        <v>banking</v>
+      </c>
+      <c r="M12" s="9">
         <f t="shared" si="3"/>
-        <v>0.53901433944702148</v>
-      </c>
-      <c r="N8" s="9" t="str">
+        <v>0.57135909795761108</v>
+      </c>
+      <c r="N12" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>pessimistic</v>
-      </c>
-      <c r="O8" s="10">
+        <v>slightly</v>
+      </c>
+      <c r="O12" s="9">
         <f t="shared" si="4"/>
-        <v>0.59819638729095459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9">
-        <v>0.65669453144073486</v>
-      </c>
-      <c r="F9" s="9" t="str">
+        <v>0.65165930986404419</v>
+      </c>
+      <c r="P12" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>fiscal</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="5"/>
+        <v>0.51334261894226074</v>
+      </c>
+      <c r="R12" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>hourly</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="6"/>
+        <v>0.47510024905204767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>0.61931180953979492</v>
+      </c>
+      <c r="F13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>mortgage</v>
-      </c>
-      <c r="G9" s="10">
+        <v>continue</v>
+      </c>
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v>0.67368733882904053</v>
-      </c>
-      <c r="H9" s="9" t="str">
+        <v>0.60866761207580566</v>
+      </c>
+      <c r="H13" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>growth</v>
-      </c>
-      <c r="I9" s="10">
+        <v>increase</v>
+      </c>
+      <c r="I13" s="9">
         <f t="shared" si="1"/>
-        <v>0.5642092227935791</v>
-      </c>
-      <c r="J9" s="9" t="str">
+        <v>0.55821013450622559</v>
+      </c>
+      <c r="J13" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>technology</v>
-      </c>
-      <c r="K9" s="10">
+        <v>shift</v>
+      </c>
+      <c r="K13" s="9">
         <f t="shared" si="2"/>
-        <v>0.51837223768234253</v>
-      </c>
-      <c r="L9" s="9" t="str">
+        <v>0.44615262746810908</v>
+      </c>
+      <c r="L13" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>skill</v>
-      </c>
-      <c r="M9" s="10">
+        <v>deposit</v>
+      </c>
+      <c r="M13" s="9">
         <f t="shared" si="3"/>
-        <v>0.53544151782989502</v>
-      </c>
-      <c r="N9" s="9" t="str">
+        <v>0.56655269861221313</v>
+      </c>
+      <c r="N13" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>optimistic</v>
-      </c>
-      <c r="O9" s="10">
+        <v>commercial</v>
+      </c>
+      <c r="O13" s="9">
         <f t="shared" si="4"/>
-        <v>0.58455824851989746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10">
-        <v>0.6519894003868103</v>
-      </c>
-      <c r="F10" s="6" t="str">
+        <v>0.65031123161315918</v>
+      </c>
+      <c r="P13" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>additional</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="5"/>
+        <v>0.4983775913715362</v>
+      </c>
+      <c r="R13" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>occupation</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="6"/>
+        <v>0.46934610605239868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <v>0.61720865964889526</v>
+      </c>
+      <c r="F14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>high</v>
-      </c>
-      <c r="G10" s="10">
+        <v>because</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>0.67315489053726196</v>
-      </c>
-      <c r="H10" s="9" t="str">
+        <v>0.59564173221588135</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>interest</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.55759888887405396</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>analytic</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="2"/>
+        <v>0.44251361489295959</v>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>tighten</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="3"/>
+        <v>0.56233340501785278</v>
+      </c>
+      <c r="N14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>sector</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="4"/>
+        <v>0.63942378759384155</v>
+      </c>
+      <c r="P14" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>budget</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="5"/>
+        <v>0.49381139874458307</v>
+      </c>
+      <c r="R14" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>engineer</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="6"/>
+        <v>0.4650261402130127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0.61008208990097046</v>
+      </c>
+      <c r="F15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>potential</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.59479266405105591</v>
+      </c>
+      <c r="H15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>however</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I15" s="11">
         <f t="shared" si="1"/>
-        <v>0.56394404172897339</v>
-      </c>
-      <c r="J10" s="9" t="str">
+        <v>0.55466967821121216</v>
+      </c>
+      <c r="J15" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>expenditure</v>
-      </c>
-      <c r="K10" s="10">
+        <v>generation</v>
+      </c>
+      <c r="K15" s="11">
         <f t="shared" si="2"/>
-        <v>0.51485580205917358</v>
-      </c>
-      <c r="L10" s="6" t="str">
+        <v>0.43557536602020258</v>
+      </c>
+      <c r="L15" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>engineer</v>
-      </c>
-      <c r="M10" s="10">
+        <v>continue</v>
+      </c>
+      <c r="M15" s="11">
         <f t="shared" si="3"/>
-        <v>0.53071337938308716</v>
-      </c>
-      <c r="N10" s="9" t="str">
+        <v>0.7384638786315918</v>
+      </c>
+      <c r="N15" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>regard</v>
-      </c>
-      <c r="O10" s="10">
+        <v>however</v>
+      </c>
+      <c r="O15" s="11">
         <f t="shared" si="4"/>
-        <v>0.56089657545089722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <v>0.65131038427352905</v>
-      </c>
-      <c r="F11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>potential</v>
-      </c>
-      <c r="G11" s="10">
-        <f t="shared" si="0"/>
-        <v>0.65906739234924316</v>
-      </c>
-      <c r="H11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>contact</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="1"/>
-        <v>0.5597914457321167</v>
-      </c>
-      <c r="J11" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>plan</v>
-      </c>
-      <c r="K11" s="10">
-        <f t="shared" si="2"/>
-        <v>0.49556776881217951</v>
-      </c>
-      <c r="L11" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>programmer</v>
-      </c>
-      <c r="M11" s="10">
-        <f t="shared" si="3"/>
-        <v>0.52720248699188232</v>
-      </c>
-      <c r="N11" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>uncertainty</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="4"/>
-        <v>0.55103999376296997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12">
-        <v>0.59112226963043213</v>
-      </c>
-      <c r="F12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>inventory</v>
-      </c>
-      <c r="G12" s="10">
-        <f t="shared" si="0"/>
-        <v>0.65697270631790161</v>
-      </c>
-      <c r="H12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>increase</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="1"/>
-        <v>0.54713165760040283</v>
-      </c>
-      <c r="J12" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>develop</v>
-      </c>
-      <c r="K12" s="10">
-        <f t="shared" si="2"/>
-        <v>0.49135589599609369</v>
-      </c>
-      <c r="L12" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>hourly</v>
-      </c>
-      <c r="M12" s="10">
-        <f t="shared" si="3"/>
-        <v>0.5150139331817627</v>
-      </c>
-      <c r="N12" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>outlook</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="4"/>
-        <v>0.55054271221160889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>0.58609753847122192</v>
-      </c>
-      <c r="F13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>although</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" si="0"/>
-        <v>0.65669453144073486</v>
-      </c>
-      <c r="H13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>overall</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="1"/>
-        <v>0.54033553600311279</v>
-      </c>
-      <c r="J13" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>development</v>
-      </c>
-      <c r="K13" s="10">
-        <f t="shared" si="2"/>
-        <v>0.48282110691070551</v>
-      </c>
-      <c r="L13" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>tradespeople</v>
-      </c>
-      <c r="M13" s="10">
-        <f t="shared" si="3"/>
-        <v>0.51163864135742188</v>
-      </c>
-      <c r="N13" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>weak</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="4"/>
-        <v>0.5421721339225769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14">
-        <v>0.57555621862411499</v>
-      </c>
-      <c r="F14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>despite</v>
-      </c>
-      <c r="G14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.6519894003868103</v>
-      </c>
-      <c r="H14" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>balance</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" si="1"/>
-        <v>0.53328198194503784</v>
-      </c>
-      <c r="J14" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>comply</v>
-      </c>
-      <c r="K14" s="10">
-        <f t="shared" si="2"/>
-        <v>0.47195383906364441</v>
-      </c>
-      <c r="L14" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>assistant</v>
-      </c>
-      <c r="M14" s="10">
-        <f t="shared" si="3"/>
-        <v>0.5057680606842041</v>
-      </c>
-      <c r="N14" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>whether</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="4"/>
-        <v>0.54019254446029663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>0.5642092227935791</v>
-      </c>
-      <c r="F15" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>because</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="0"/>
-        <v>0.65131038427352905</v>
-      </c>
-      <c r="H15" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>continue</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.5286637544631958</v>
-      </c>
-      <c r="J15" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>respirator</v>
-      </c>
-      <c r="K15" s="12">
-        <f t="shared" si="2"/>
-        <v>0.46823140978813171</v>
-      </c>
-      <c r="L15" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>cautious</v>
-      </c>
-      <c r="M15" s="12">
-        <f t="shared" si="3"/>
-        <v>0.63352763652801514</v>
-      </c>
-      <c r="N15" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>express</v>
-      </c>
-      <c r="O15" s="12">
-        <f t="shared" si="4"/>
-        <v>0.51813817024230957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.63676720857620239</v>
+      </c>
+      <c r="P15" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>future</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="5"/>
+        <v>0.49332815408706659</v>
+      </c>
+      <c r="R15" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>certain</v>
+      </c>
+      <c r="S15" s="13">
+        <f t="shared" si="6"/>
+        <v>0.4626954197883606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>0.56394404172897339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.57572436332702637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2819,385 +3041,608 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>0.5597914457321167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.56607425212860107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>0.54713165760040283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.56099134683609009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>0.54033553600311279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.55821013450622559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>0.53328198194503784</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.55759888887405396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C21">
-        <v>0.5286637544631958</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.55466967821121216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22">
-        <v>0.57671272754669189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.55927193164825439</v>
+      </c>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C23">
-        <v>0.53413563966751099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.53213512897491455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C24">
-        <v>0.51939970254898071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.52293270826339722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C25">
-        <v>0.51837223768234253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.49021759629249573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C26">
-        <v>0.51485580205917358</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.48699721693992609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C27">
-        <v>0.49556776881217951</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.46175405383110041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C28">
-        <v>0.49135589599609369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.45291745662689209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C29">
-        <v>0.48282110691070551</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.44615262746810908</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C30">
-        <v>0.47195383906364441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.44251361489295959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C31">
-        <v>0.46823140978813171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.43557536602020258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C32">
-        <v>0.6720280647277832</v>
+        <v>0.73766195774078369</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C33">
-        <v>0.59668302536010742</v>
+        <v>0.72929030656814575</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C34">
-        <v>0.56989938020706177</v>
+        <v>0.69619220495223999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>0.53901433944702148</v>
+        <v>0.64838302135467529</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>0.53544151782989502</v>
+        <v>0.59765589237213135</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C37">
-        <v>0.53071337938308716</v>
+        <v>0.59593015909194946</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C38">
-        <v>0.52720248699188232</v>
+        <v>0.58252352476119995</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C39">
-        <v>0.5150139331817627</v>
+        <v>0.57135909795761108</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C40">
-        <v>0.51163864135742188</v>
+        <v>0.56655269861221313</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="C41">
-        <v>0.5057680606842041</v>
+        <v>0.56233340501785278</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="C42">
-        <v>0.63352763652801514</v>
+        <v>0.7384638786315918</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C43">
-        <v>0.61593180894851685</v>
+        <v>0.73365318775177002</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C44">
-        <v>0.59819638729095459</v>
+        <v>0.72977757453918457</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0.58455824851989746</v>
+        <v>0.69808012247085571</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C46">
-        <v>0.56089657545089722</v>
+        <v>0.6937795877456665</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C47">
-        <v>0.55103999376296997</v>
+        <v>0.69197303056716919</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C48">
-        <v>0.55054271221160889</v>
+        <v>0.65165930986404419</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>0.5421721339225769</v>
+        <v>0.65031123161315918</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C50">
-        <v>0.54019254446029663</v>
+        <v>0.63942378759384155</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C51">
-        <v>0.51813817024230957</v>
+        <v>0.63676720857620239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52">
+        <v>0.86445367336273193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53">
+        <v>0.71557211875915527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54">
+        <v>0.56865209341049194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55">
+        <v>0.54048019647598267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56">
+        <v>0.52263456583023071</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57">
+        <v>0.51391822099685669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58">
+        <v>0.51334261894226074</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59">
+        <v>0.4983775913715362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60">
+        <v>0.49381139874458307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61">
+        <v>0.49332815408706659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62">
+        <v>0.71774619817733765</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>0.51704710721969604</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64">
+        <v>0.4950586855411529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65">
+        <v>0.4842529296875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66">
+        <v>0.4800864160060882</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67">
+        <v>0.47624963521957397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <v>0.47510024905204767</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69">
+        <v>0.46934610605239868</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>0.4650261402130127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71">
+        <v>0.4626954197883606</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
